--- a/motherboard/Hardware/Calculations/Cable Harness.xlsx
+++ b/motherboard/Hardware/Calculations/Cable Harness.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fgewi\Documents\Fynn\Projekte\Balloon\GitHub\SpiCy-BEXUS\micorcontroller\Hardware\Calculations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fgewi\Documents\Fynn\Projekte\Balloon\GitHub\SpiCy-BEXUS\motherboard\Hardware\Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB15CFA3-C1EB-441D-B1E5-945F33BE8DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6309BC39-341F-40B2-A128-B3CB7263001A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF6BBEE3-69E0-44E7-9484-437EE6090CBD}"/>
   </bookViews>
@@ -612,7 +612,7 @@
   <dimension ref="B1:O85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -715,11 +715,11 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="G7">
         <f t="shared" ref="G7:G10" si="0">F7*E7*D7</f>
-        <v>4.8000000000000007</v>
+        <v>0.48</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="G13">
         <f>SUM(G6:G10)*G12</f>
-        <v>26.640000000000004</v>
+        <v>21.456000000000003</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="G14">
         <f>G13*3.28084</f>
-        <v>87.40157760000001</v>
+        <v>70.393703040000005</v>
       </c>
       <c r="H14" s="6"/>
     </row>
